--- a/symbols/My_Resistor-0603.xlsx
+++ b/symbols/My_Resistor-0603.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbwal\VSCode\KiCAD\electronics-library\symbols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE9959E-DA9E-49FA-A56E-25176172AD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DD9A53-BA0F-4794-9E22-38CB941A4041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="52545" yWindow="915" windowWidth="24840" windowHeight="19965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="138">
   <si>
     <t>Symbol Name</t>
   </si>
@@ -44,15 +44,12 @@
     <t>Description</t>
   </si>
   <si>
+    <t>ki_keywords</t>
+  </si>
+  <si>
     <t>JLCPCB</t>
   </si>
   <si>
-    <t>JLCPCB Type</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
     <t>C4177</t>
   </si>
   <si>
@@ -447,13 +444,16 @@
   </si>
   <si>
     <t>C23184</t>
+  </si>
+  <si>
+    <t>r resistor basic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +479,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,15 +538,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,16 +902,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,33 +922,33 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="str">
         <f>A2</f>
         <v>2.7k</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D65" si="0" xml:space="preserve"> A2 &amp; "Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor"</f>
         <v>2.7kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -952,44 +959,53 @@
         <f t="shared" ref="B3:B66" si="1">A3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
         <v>0Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="1"/>
         <v>1k</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>1kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="1"/>
         <v>1.2k</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v>1.2kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,12 +1016,15 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>100Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,60 +1035,72 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>120Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="1"/>
         <v>12k</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>12kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="1"/>
         <v>13k</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
         <v>13kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="1"/>
         <v>150k</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>150kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,44 +1111,53 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>150Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="1"/>
         <v>15k</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>15kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="1"/>
         <v>1.5k</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>1.5kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1128,28 +1168,34 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>10Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="1"/>
         <v>1M</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>1MΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E15" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1160,15 +1206,18 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>1Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.2000000000000002</v>
       </c>
@@ -1176,31 +1225,37 @@
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>2.4k</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>2.2Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>2.4k</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>2.4kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>20</v>
       </c>
@@ -1208,31 +1263,37 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>20Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>220k</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>20Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="1"/>
-        <v>220k</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>220kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>220</v>
       </c>
@@ -1240,15 +1301,18 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>49</v>
+      <c r="C21" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>220Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>270</v>
       </c>
@@ -1256,63 +1320,75 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>270Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>27k</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>270Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>27kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="1"/>
-        <v>27k</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>2k</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>27kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>2kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="1"/>
-        <v>2k</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>2M</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>2kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="1"/>
-        <v>2M</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>2MΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1320,95 +1396,113 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>2Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>3.3k</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>2Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>3.3kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="B27" t="str">
-        <f t="shared" si="1"/>
-        <v>3.3k</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>3.6k</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>3.3kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>3.6kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="1"/>
-        <v>3.6k</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>30k</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>3.6kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>30kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="1"/>
-        <v>30k</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>3.9k</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>30kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="1"/>
-        <v>3.9k</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>3.9kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>3.9kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
       <c r="B31" t="str">
         <f t="shared" si="1"/>
         <v>300k</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>64</v>
+      <c r="C31" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>300kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>300</v>
       </c>
@@ -1416,47 +1510,56 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>300Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>4.99k</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>300Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>4.99kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>60</v>
       </c>
-      <c r="B33" t="str">
-        <f t="shared" si="1"/>
-        <v>4.99k</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>330k</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>4.99kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="1"/>
-        <v>330k</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>330kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>330</v>
       </c>
@@ -1464,15 +1567,18 @@
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>68</v>
+      <c r="C35" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
         <v>330Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1480,15 +1586,18 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>69</v>
+      <c r="C36" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
         <v>33Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>390</v>
       </c>
@@ -1496,47 +1605,56 @@
         <f t="shared" si="1"/>
         <v>390</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>390Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>39k</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>390Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>39kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="1"/>
-        <v>39k</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>4.7k</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
-        <v>39kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="1"/>
-        <v>4.7k</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
         <v>4.7kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4.7</v>
       </c>
@@ -1544,31 +1662,37 @@
         <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>4.7Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>470k</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
-        <v>4.7Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="1"/>
-        <v>470k</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
         <v>470kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>470</v>
       </c>
@@ -1576,15 +1700,18 @@
         <f t="shared" si="1"/>
         <v>470</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>80</v>
+      <c r="C42" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>470Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>47</v>
       </c>
@@ -1592,31 +1719,37 @@
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>81</v>
+      <c r="C43" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>47Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>49.9k</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>137</v>
+      <c r="C44" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
         <v>49.9kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>49.9</v>
       </c>
@@ -1624,63 +1757,75 @@
         <f t="shared" si="1"/>
         <v>49.9</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>49.9Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>5.1k</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>49.9Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>5.1kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>75</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="1"/>
-        <v>5.1k</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>5.6k</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>5.1kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>5.6kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>76</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" si="1"/>
-        <v>5.6k</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>510k</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v>5.6kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="1"/>
-        <v>510k</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
         <v>510kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>510</v>
       </c>
@@ -1688,31 +1833,37 @@
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>510Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>86</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>510Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>87</v>
-      </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
         <v>51k</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>93</v>
+      <c r="C50" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>51kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1720,15 +1871,18 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>94</v>
+      <c r="C51" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
         <v>51Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>560</v>
       </c>
@@ -1736,47 +1890,56 @@
         <f t="shared" si="1"/>
         <v>560</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>560Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="1"/>
+        <v>56k</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>560Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>56kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>88</v>
       </c>
-      <c r="B53" t="str">
-        <f t="shared" si="1"/>
-        <v>56k</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B54" t="str">
+        <f t="shared" si="1"/>
+        <v>6.8k</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>56kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="1"/>
-        <v>6.8k</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
         <v>6.8kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>680</v>
       </c>
@@ -1784,63 +1947,75 @@
         <f t="shared" si="1"/>
         <v>680</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>680Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="1"/>
+        <v>68k</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>680Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>68kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>90</v>
       </c>
-      <c r="B56" t="str">
-        <f t="shared" si="1"/>
-        <v>68k</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="B57" t="str">
+        <f t="shared" si="1"/>
+        <v>7.5k</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>68kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>7.5kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>91</v>
       </c>
-      <c r="B57" t="str">
-        <f t="shared" si="1"/>
-        <v>7.5k</v>
-      </c>
-      <c r="C57" s="4" t="s">
+      <c r="B58" t="str">
+        <f t="shared" si="1"/>
+        <v>75k</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>7.5kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="1"/>
-        <v>75k</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
         <v>75kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>820</v>
       </c>
@@ -1848,47 +2023,56 @@
         <f t="shared" si="1"/>
         <v>820</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>820Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>102</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>820Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60" t="str">
+        <f t="shared" si="1"/>
+        <v>82k</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>82kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>103</v>
       </c>
-      <c r="B60" t="str">
-        <f t="shared" si="1"/>
-        <v>82k</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="B61" t="str">
+        <f t="shared" si="1"/>
+        <v>9.1k</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>82kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="1"/>
-        <v>9.1k</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
         <v>9.1kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>22</v>
       </c>
@@ -1896,31 +2080,37 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>22Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="1"/>
+        <v>24k</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>22Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="1"/>
-        <v>24k</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
         <v>24kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5.0999999999999996</v>
       </c>
@@ -1928,239 +2118,284 @@
         <f t="shared" si="1"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>5.1Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="1"/>
+        <v>100k</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>5.1Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>100kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>106</v>
       </c>
-      <c r="B65" t="str">
-        <f t="shared" si="1"/>
-        <v>100k</v>
-      </c>
-      <c r="C65" s="4" t="s">
+      <c r="B66" t="str">
+        <f t="shared" si="1"/>
+        <v>10k</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>100kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" si="1"/>
-        <v>10k</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" ref="D66:D81" si="2" xml:space="preserve"> A66 &amp; "Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor"</f>
         <v>10kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B81" si="3">A67</f>
         <v>120k</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>117</v>
+      <c r="C67" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="2"/>
         <v>120kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="3"/>
         <v>18k</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>118</v>
+      <c r="C68" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="2"/>
         <v>18kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="3"/>
         <v>200k</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>125</v>
+      <c r="C69" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="2"/>
         <v>200kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="3"/>
         <v>47k</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>126</v>
+      <c r="C70" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="2"/>
         <v>47kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="3"/>
         <v>8.2k</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>127</v>
+      <c r="C71" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="2"/>
         <v>8.2kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="3"/>
         <v>22k</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>128</v>
+      <c r="C72" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="2"/>
         <v>22kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="3"/>
         <v>1.8k</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>6</v>
+      <c r="C73" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
         <v>1.8kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="3"/>
         <v>20k</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>8</v>
+      <c r="C74" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
         <v>20kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="3"/>
         <v>2.2k</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>10</v>
+      <c r="C75" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="2"/>
         <v>2.2kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="3"/>
         <v>3k</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>129</v>
+      <c r="C76" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
         <v>3kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="3"/>
         <v>33k</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>130</v>
+      <c r="C77" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
         <v>33kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="3"/>
         <v>6.2k</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>133</v>
+      <c r="C78" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
         <v>6.2kΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -2168,31 +2403,37 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>134</v>
+      <c r="C79" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
         <v>75Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="3"/>
         <v>10M</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>135</v>
+      <c r="C80" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
         <v>10MΩ 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>200</v>
       </c>
@@ -2200,12 +2441,15 @@
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>136</v>
+      <c r="C81" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
         <v>200Ω 100mW ±1% ±100ppm/℃ 0603 Chip Resistor</v>
+      </c>
+      <c r="E81" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
